--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/C/Users/User/Documents/GitHub/CityEnergyAnalyst/cea/databases/SIN/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/archetypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBA1BA-9BEA-AE46-A454-C41CC845EEE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="75">
   <si>
     <t>Code</t>
   </si>
@@ -253,16 +254,19 @@
   </si>
   <si>
     <t>Es</t>
+  </si>
+  <si>
+    <t>Qcpro_Wm2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1134,17 +1138,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
@@ -1159,7 +1163,7 @@
     <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1272,7 +1276,7 @@
       </c>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2112,7 +2116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2290,14 +2294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
@@ -2309,7 +2313,7 @@
     <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2439,7 +2443,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2517,7 +2521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2647,7 +2651,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2725,7 +2729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2777,7 +2781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="8:8">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2838,14 +2842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
@@ -2858,7 +2862,7 @@
     <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="8:8">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3451,14 +3455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
@@ -3469,7 +3473,7 @@
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3521,7 +3525,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3629,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3678,7 +3682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3834,7 +3838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -3998,14 +4002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.33203125" style="1" customWidth="1"/>
@@ -4014,12 +4018,12 @@
     <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4048,13 +4052,16 @@
         <v>16</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -4088,8 +4095,11 @@
       <c r="K2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -4123,8 +4133,11 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -4158,8 +4171,11 @@
       <c r="K4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -4193,8 +4209,11 @@
       <c r="K5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -4228,8 +4247,11 @@
       <c r="K6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -4263,8 +4285,11 @@
       <c r="K7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -4298,8 +4323,11 @@
       <c r="K8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -4333,8 +4361,11 @@
       <c r="K9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -4368,8 +4399,11 @@
       <c r="K10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -4403,8 +4437,11 @@
       <c r="K11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -4438,8 +4475,11 @@
       <c r="K12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -4473,8 +4513,11 @@
       <c r="K13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -4508,8 +4551,11 @@
       <c r="K14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4543,8 +4589,11 @@
       <c r="K15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -4578,8 +4627,11 @@
       <c r="K16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -4608,13 +4660,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K17" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -4651,8 +4706,11 @@
       <c r="K18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -4686,8 +4744,11 @@
       <c r="K19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -4719,6 +4780,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBA1BA-9BEA-AE46-A454-C41CC845EEE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="71">
   <si>
     <t>Code</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Ve_lps</t>
   </si>
   <si>
-    <t>Ths_set_C</t>
-  </si>
-  <si>
     <t>X_ghp</t>
   </si>
   <si>
@@ -76,9 +72,6 @@
     <t>Qs_Wp</t>
   </si>
   <si>
-    <t>Tcs_set_C</t>
-  </si>
-  <si>
     <t>Vww_lpd</t>
   </si>
   <si>
@@ -131,12 +124,6 @@
   </si>
   <si>
     <t>Ed_Wm2</t>
-  </si>
-  <si>
-    <t>Tcs_setb_C</t>
-  </si>
-  <si>
-    <t>Ths_setb_C</t>
   </si>
   <si>
     <t>type_win</t>
@@ -262,11 +249,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -1148,89 +1135,89 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3">
         <v>0.9</v>
@@ -1257,37 +1244,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -1314,36 +1301,36 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -1370,36 +1357,36 @@
         <v>0.35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -1426,36 +1413,36 @@
         <v>0.59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -1482,36 +1469,36 @@
         <v>0.59</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3">
         <v>0.9</v>
@@ -1538,36 +1525,36 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>0.9</v>
@@ -1594,36 +1581,36 @@
         <v>0.59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3">
         <v>0.9</v>
@@ -1650,36 +1637,36 @@
         <v>0.1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -1706,36 +1693,36 @@
         <v>0.35</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3">
         <v>0.9</v>
@@ -1762,36 +1749,36 @@
         <v>0.35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>0.9</v>
@@ -1818,36 +1805,36 @@
         <v>0.35</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>0.9</v>
@@ -1874,36 +1861,36 @@
         <v>0.35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3">
         <v>0.9</v>
@@ -1930,36 +1917,36 @@
         <v>0.35</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3">
         <v>0.9</v>
@@ -1986,36 +1973,36 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -2042,36 +2029,36 @@
         <v>0.5</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Q16" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>0.9</v>
@@ -2098,36 +2085,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3">
         <v>0.9</v>
@@ -2154,36 +2141,36 @@
         <v>0.35</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -2210,36 +2197,36 @@
         <v>0.35</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
         <v>0.9</v>
@@ -2266,22 +2253,22 @@
         <v>0.35</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2294,37 +2281,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -2336,504 +2323,504 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="H4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="1048576" spans="8:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2842,38 +2829,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -2888,561 +2875,561 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="G10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="I13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="G14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="I14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="I15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="I17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="I18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="1048576" spans="8:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3455,543 +3442,299 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8" si="0">111*0.15+10*0.85</f>
+        <v>25.15</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>36</v>
+      </c>
+      <c r="C15" s="5">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>30</v>
+      </c>
+      <c r="D17" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B9</f>
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="C19" s="5">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="C20" s="5">
         <v>30</v>
       </c>
-      <c r="H2" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="8">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3">
-        <v>37</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="8">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="8">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8" si="0">111*0.15+10*0.85</f>
-        <v>25.15</v>
-      </c>
-      <c r="G8" s="5">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>31</v>
-      </c>
-      <c r="G9" s="5">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="8">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3">
-        <v>37</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="8">
-        <v>50</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5">
-        <v>36</v>
-      </c>
-      <c r="G14" s="5">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="8">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5">
-        <v>36</v>
-      </c>
-      <c r="G15" s="5">
-        <v>30</v>
-      </c>
-      <c r="H15" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
-        <v>50</v>
-      </c>
-      <c r="C16" s="5">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5">
-        <v>10</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="8">
-        <v>-5</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
-        <v>-5</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5">
-        <f>F9</f>
-        <v>31</v>
-      </c>
-      <c r="G18" s="5">
-        <v>30</v>
-      </c>
-      <c r="H18" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="8">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="8">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="D20" s="5">
         <v>70</v>
       </c>
     </row>
@@ -4002,68 +3745,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="8">
         <v>70</v>
@@ -4099,9 +3842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>70</v>
@@ -4137,9 +3880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>70</v>
@@ -4175,9 +3918,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8">
         <v>70</v>
@@ -4213,9 +3956,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="8">
         <v>70</v>
@@ -4251,9 +3994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="8">
         <v>70</v>
@@ -4289,9 +4032,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8">
         <v>73</v>
@@ -4327,9 +4070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8">
         <v>90</v>
@@ -4365,9 +4108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="8">
         <v>70</v>
@@ -4403,9 +4146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="8">
         <v>70</v>
@@ -4441,9 +4184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="8">
         <v>70</v>
@@ -4479,9 +4222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8">
         <v>110</v>
@@ -4517,9 +4260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8">
         <v>70</v>
@@ -4555,9 +4298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -4593,9 +4336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -4631,9 +4374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
@@ -4669,9 +4412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8">
         <f>B12</f>
@@ -4710,9 +4453,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8">
         <v>70</v>
@@ -4748,9 +4491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8">
         <v>70</v>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="72">
   <si>
     <t>Code</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Qcpro_Wm2</t>
+  </si>
+  <si>
+    <t>Occ_m2pax</t>
   </si>
 </sst>
 </file>
@@ -3445,7 +3448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -3746,559 +3749,602 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8">
         <v>70</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>80</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <v>40</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>80</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>80</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>80</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
       <c r="K3" s="5">
         <v>0</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="8">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
         <v>70</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>80</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>4.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>3.1</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>40</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>80</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
       <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
         <v>70</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>80</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>20</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
       <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>70</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>90</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <v>70</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>80</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
       <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="C8" s="8">
         <v>73</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>85</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>31.7</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>8.25</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>16</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
         <v>90</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>170</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>14.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>16.5</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>10</v>
       </c>
-      <c r="I9" s="8">
+      <c r="J9" s="8">
         <v>20</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="8">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
         <v>70</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>80</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>16</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>12</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>20</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
         <v>70</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>80</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>16</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>4</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="8">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
         <v>70</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>80</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>11</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>80</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
         <v>110</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>255</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>9.9</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>40</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>80</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
         <v>70</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>80</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>11.3</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>360</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
       <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
@@ -4308,25 +4354,25 @@
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <v>7.1</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
       <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>500</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
       <c r="I15" s="8">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="5">
@@ -4335,8 +4381,11 @@
       <c r="L15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -4350,21 +4399,21 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="5">
@@ -4373,8 +4422,11 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
@@ -4388,144 +4440,156 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>5.7</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
       <c r="L17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="8">
-        <f>B12</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <f>C12</f>
+        <v>70</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D12</f>
         <v>80</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>30</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>12</v>
       </c>
-      <c r="F18" s="8">
-        <f>F9</f>
+      <c r="G18" s="8">
+        <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <v>10</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>20</v>
       </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8">
         <v>70</v>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <v>80</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>7</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>10.8</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>4</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="8">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8">
         <v>70</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>80</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>6.9</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>0</v>
       </c>
       <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>4</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
       <c r="K20" s="5">
         <v>0</v>
       </c>
       <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinmo/Documents/GitHub/CityEnergyAnalyst/cea/databases/SG/archetypes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBBA1BA-9BEA-AE46-A454-C41CC845EEE9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19600" tabRatio="785" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId4"/>
     <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="76">
   <si>
     <t>Code</t>
   </si>
@@ -257,16 +256,19 @@
   </si>
   <si>
     <t>Qcpro_Wm2</t>
+  </si>
+  <si>
+    <t>Occ_m2pax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -1148,22 +1150,22 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -1276,7 +1278,7 @@
       </c>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1612,7 +1614,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -1892,7 +1894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2294,26 +2296,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="4"/>
-    <col min="6" max="6" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="4"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -2651,7 +2653,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2703,7 +2705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -2833,7 +2835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2842,27 +2844,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="4"/>
-    <col min="7" max="7" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>48</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3036,7 +3038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3123,7 +3125,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3210,7 +3212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3455,25 +3457,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
@@ -3734,7 +3736,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3812,7 +3814,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3864,7 +3866,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3890,7 +3892,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
@@ -4002,560 +4004,603 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="8">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8">
         <v>70</v>
       </c>
-      <c r="C2" s="8">
+      <c r="D2" s="8">
         <v>80</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>5</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
       <c r="G2" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
         <v>40</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>80</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
       <c r="K2" s="5">
         <v>0</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>80</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>40</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>80</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
       <c r="K3" s="5">
         <v>0</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="8">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
         <v>70</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="8">
         <v>80</v>
       </c>
-      <c r="D4" s="8">
+      <c r="E4" s="8">
         <v>4.3</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>3.1</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>40</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>80</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
       <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
         <v>70</v>
       </c>
-      <c r="C5" s="8">
+      <c r="D5" s="8">
         <v>80</v>
       </c>
-      <c r="D5" s="8">
+      <c r="E5" s="8">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
-        <v>10</v>
-      </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
       <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
         <v>20</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
       <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
         <v>70</v>
       </c>
-      <c r="C6" s="8">
+      <c r="D6" s="8">
         <v>90</v>
       </c>
-      <c r="D6" s="8">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>33.299999999999997</v>
       </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
       <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <v>70</v>
       </c>
-      <c r="C7" s="8">
+      <c r="D7" s="8">
         <v>80</v>
       </c>
-      <c r="D7" s="8">
+      <c r="E7" s="8">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
         <v>2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="8">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
       <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="C8" s="8">
         <v>73</v>
       </c>
-      <c r="C8" s="8">
+      <c r="D8" s="8">
         <v>85</v>
       </c>
-      <c r="D8" s="8">
+      <c r="E8" s="8">
         <v>31.7</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <v>8.25</v>
       </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="8">
+      <c r="J8" s="8">
         <v>16</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="8">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
         <v>90</v>
       </c>
-      <c r="C9" s="8">
+      <c r="D9" s="8">
         <v>170</v>
       </c>
-      <c r="D9" s="8">
+      <c r="E9" s="8">
         <v>20</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <v>14.7</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <v>16.5</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>10</v>
+      <c r="H9" s="5">
+        <v>0</v>
       </c>
       <c r="I9" s="8">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
         <v>20</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
       <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="8">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
         <v>70</v>
       </c>
-      <c r="C10" s="8">
+      <c r="D10" s="8">
         <v>80</v>
       </c>
-      <c r="D10" s="8">
+      <c r="E10" s="8">
         <v>16</v>
       </c>
-      <c r="E10" s="8">
+      <c r="F10" s="8">
         <v>12</v>
       </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>0</v>
       </c>
       <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <v>20</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
       <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
         <v>70</v>
       </c>
-      <c r="C11" s="8">
+      <c r="D11" s="8">
         <v>80</v>
       </c>
-      <c r="D11" s="8">
+      <c r="E11" s="8">
         <v>16</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>12</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
       <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <v>4</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
       <c r="K11" s="5">
         <v>0</v>
       </c>
       <c r="L11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="8">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
         <v>70</v>
       </c>
-      <c r="C12" s="8">
+      <c r="D12" s="8">
         <v>80</v>
       </c>
-      <c r="D12" s="8">
+      <c r="E12" s="8">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
+      <c r="F12" s="8">
         <v>11</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>0</v>
       </c>
       <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <v>80</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
       <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
         <v>110</v>
       </c>
-      <c r="C13" s="8">
+      <c r="D13" s="8">
         <v>255</v>
       </c>
-      <c r="D13" s="8">
+      <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="F13" s="8">
         <v>9.9</v>
       </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>40</v>
       </c>
-      <c r="I13" s="8">
+      <c r="J13" s="8">
         <v>80</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
       <c r="K13" s="5">
         <v>0</v>
       </c>
       <c r="L13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
         <v>70</v>
       </c>
-      <c r="C14" s="8">
+      <c r="D14" s="8">
         <v>80</v>
       </c>
-      <c r="D14" s="8">
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="F14" s="8">
         <v>11.3</v>
       </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
       <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>360</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
       <c r="K14" s="5">
         <v>0</v>
       </c>
       <c r="L14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4565,25 +4610,25 @@
       <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <v>7.1</v>
       </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
       <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
         <v>500</v>
       </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
       <c r="I15" s="8">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="8">
         <v>0</v>
       </c>
       <c r="K15" s="5">
@@ -4592,8 +4637,11 @@
       <c r="L15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -4607,21 +4655,21 @@
         <v>0</v>
       </c>
       <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>0</v>
       </c>
       <c r="I16" s="8">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="8">
         <v>0</v>
       </c>
       <c r="K16" s="5">
@@ -4630,8 +4678,11 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -4645,144 +4696,156 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
         <v>5.7</v>
       </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>0</v>
       </c>
       <c r="I17" s="8">
         <v>0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
       <c r="L17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="8">
-        <f>B12</f>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8">
         <f>C12</f>
+        <v>70</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D12</f>
         <v>80</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E18" s="8">
         <v>30</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>12</v>
       </c>
-      <c r="F18" s="8">
-        <f>F9</f>
+      <c r="G18" s="8">
+        <f>G9</f>
         <v>16.5</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>10</v>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
       <c r="I18" s="8">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
         <v>20</v>
       </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8">
         <v>70</v>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <v>80</v>
       </c>
-      <c r="D19" s="8">
+      <c r="E19" s="8">
         <v>7</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>10.8</v>
       </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>4</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="8">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8">
         <v>70</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>80</v>
       </c>
-      <c r="D20" s="8">
+      <c r="E20" s="8">
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="F20" s="8">
         <v>6.9</v>
       </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>0</v>
       </c>
       <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>4</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
       <c r="K20" s="5">
         <v>0</v>
       </c>
       <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
         <v>0</v>
       </c>
     </row>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -54,15 +54,9 @@
     <t>type_shade</t>
   </si>
   <si>
-    <t>Ve_lps</t>
-  </si>
-  <si>
     <t>Ths_set_C</t>
   </si>
   <si>
-    <t>X_ghp</t>
-  </si>
-  <si>
     <t>Ea_Wm2</t>
   </si>
   <si>
@@ -72,18 +66,9 @@
     <t>Epro_Wm2</t>
   </si>
   <si>
-    <t>Qs_Wp</t>
-  </si>
-  <si>
     <t>Tcs_set_C</t>
   </si>
   <si>
-    <t>Vww_lpd</t>
-  </si>
-  <si>
-    <t>Vw_lpd</t>
-  </si>
-  <si>
     <t>MULTI_RES</t>
   </si>
   <si>
@@ -259,6 +244,21 @@
   </si>
   <si>
     <t>Occ_m2pax</t>
+  </si>
+  <si>
+    <t>Vw_lpdpax</t>
+  </si>
+  <si>
+    <t>Vww_lpdpax</t>
+  </si>
+  <si>
+    <t>X_ghpax</t>
+  </si>
+  <si>
+    <t>Qs_Wpax</t>
+  </si>
+  <si>
+    <t>Ve_lpspax</t>
   </si>
 </sst>
 </file>
@@ -1167,55 +1167,55 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>6</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3">
         <v>0.9</v>
@@ -1259,37 +1259,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -1316,36 +1316,36 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -1372,36 +1372,36 @@
         <v>0.35</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -1428,36 +1428,36 @@
         <v>0.59</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -1484,36 +1484,36 @@
         <v>0.59</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3">
         <v>0.9</v>
@@ -1540,36 +1540,36 @@
         <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3">
         <v>0.9</v>
@@ -1596,36 +1596,36 @@
         <v>0.59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3">
         <v>0.9</v>
@@ -1652,36 +1652,36 @@
         <v>0.1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -1708,36 +1708,36 @@
         <v>0.35</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>0.9</v>
@@ -1764,36 +1764,36 @@
         <v>0.35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3">
         <v>0.9</v>
@@ -1820,36 +1820,36 @@
         <v>0.35</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3">
         <v>0.9</v>
@@ -1876,36 +1876,36 @@
         <v>0.35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3">
         <v>0.9</v>
@@ -1932,36 +1932,36 @@
         <v>0.35</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3">
         <v>0.9</v>
@@ -1988,36 +1988,36 @@
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -2044,36 +2044,36 @@
         <v>0.5</v>
       </c>
       <c r="M16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3">
         <v>0.9</v>
@@ -2100,36 +2100,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3">
         <v>0.9</v>
@@ -2156,36 +2156,36 @@
         <v>0.35</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -2212,36 +2212,36 @@
         <v>0.35</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3">
         <v>0.9</v>
@@ -2268,22 +2268,22 @@
         <v>0.35</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2317,16 +2317,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -2338,501 +2338,501 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -2866,16 +2866,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -2890,558 +2890,558 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -3460,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3480,30 +3480,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>28</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>28</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>24</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <v>24</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>24</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <v>24</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>24</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8">
         <v>24</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8">
         <v>24</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
         <v>24</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
         <v>24</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8">
         <v>24</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>50</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8">
         <v>24</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>50</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8">
         <v>-5</v>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8">
         <v>24</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="8">
         <v>24</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8">
         <v>24</v>
@@ -4007,8 +4007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4031,45 +4031,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>35</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>60</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>23</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <v>10</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>2.7</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8">
         <v>13</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" s="8">
         <v>19</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8">
         <v>9</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>20</v>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B18" s="8">
         <v>20</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8">
         <v>9</v>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -1143,11 +1143,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <v>0.5</v>
@@ -4007,7 +4007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -225,12 +225,6 @@
     <t>type_el</t>
   </si>
   <si>
-    <t>rhum_min_pc</t>
-  </si>
-  <si>
-    <t>rhum_max_pc</t>
-  </si>
-  <si>
     <t>Qcre_Wm2</t>
   </si>
   <si>
@@ -259,6 +253,12 @@
   </si>
   <si>
     <t>Ve_lpspax</t>
+  </si>
+  <si>
+    <t>RH_min_pc</t>
+  </si>
+  <si>
+    <t>RH_max_pc</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1179,13 @@
         <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>62</v>
@@ -3461,7 +3461,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,13 +3492,13 @@
         <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>8</v>
@@ -4052,19 +4052,19 @@
         <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>59</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="77">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Hs</t>
-  </si>
-  <si>
     <t>type_hs</t>
   </si>
   <si>
@@ -259,6 +256,12 @@
   </si>
   <si>
     <t>RH_max_pc</t>
+  </si>
+  <si>
+    <t>Hs_ag</t>
+  </si>
+  <si>
+    <t>Hs_bg</t>
   </si>
 </sst>
 </file>
@@ -1141,98 +1144,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" style="4" customWidth="1"/>
+    <col min="5" max="8" width="7.1328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.86328125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.73046875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.9</v>
@@ -1241,13 +1247,13 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
       <c r="I2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0.28999999999999998</v>
@@ -1258,38 +1264,41 @@
       <c r="L2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -1298,13 +1307,13 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
       <c r="I3" s="3">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0.28999999999999998</v>
@@ -1315,37 +1324,40 @@
       <c r="L3" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -1354,13 +1366,13 @@
         <v>0.84</v>
       </c>
       <c r="G4" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
       <c r="I4" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0.35</v>
@@ -1371,37 +1383,40 @@
       <c r="L4" s="3">
         <v>0.35</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
+      <c r="M4" s="3">
+        <v>0.35</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -1410,13 +1425,13 @@
         <v>0.84</v>
       </c>
       <c r="G5" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
       <c r="I5" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0.59</v>
@@ -1427,37 +1442,40 @@
       <c r="L5" s="3">
         <v>0.59</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>45</v>
+      <c r="M5" s="3">
+        <v>0.59</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -1466,13 +1484,13 @@
         <v>0.84</v>
       </c>
       <c r="G6" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
       <c r="I6" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0.59</v>
@@ -1483,37 +1501,40 @@
       <c r="L6" s="3">
         <v>0.59</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>45</v>
+      <c r="M6" s="3">
+        <v>0.59</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>0.9</v>
@@ -1522,11 +1543,11 @@
         <v>0.84</v>
       </c>
       <c r="G7" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -1539,37 +1560,40 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>45</v>
+      <c r="M7" s="3">
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>0.9</v>
@@ -1578,13 +1602,13 @@
         <v>0.84</v>
       </c>
       <c r="G8" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0.59</v>
@@ -1595,37 +1619,40 @@
       <c r="L8" s="3">
         <v>0.59</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>45</v>
+      <c r="M8" s="3">
+        <v>0.59</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
         <v>0.9</v>
@@ -1634,13 +1661,13 @@
         <v>0.7</v>
       </c>
       <c r="G9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0.1</v>
@@ -1651,37 +1678,40 @@
       <c r="L9" s="3">
         <v>0.1</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
+      <c r="M9" s="3">
+        <v>0.1</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -1690,13 +1720,13 @@
         <v>0.67</v>
       </c>
       <c r="G10" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0.35</v>
@@ -1707,37 +1737,40 @@
       <c r="L10" s="3">
         <v>0.35</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>45</v>
+      <c r="M10" s="3">
+        <v>0.35</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>0.9</v>
@@ -1746,13 +1779,13 @@
         <v>0.67</v>
       </c>
       <c r="G11" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
       <c r="I11" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0.35</v>
@@ -1763,37 +1796,40 @@
       <c r="L11" s="3">
         <v>0.35</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>45</v>
+      <c r="M11" s="3">
+        <v>0.35</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>0.9</v>
@@ -1802,13 +1838,13 @@
         <v>0.84</v>
       </c>
       <c r="G12" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0.35</v>
@@ -1819,37 +1855,40 @@
       <c r="L12" s="3">
         <v>0.35</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>45</v>
+      <c r="M12" s="3">
+        <v>0.35</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>0.9</v>
@@ -1858,13 +1897,13 @@
         <v>0.67</v>
       </c>
       <c r="G13" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
       <c r="I13" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0.35</v>
@@ -1875,37 +1914,40 @@
       <c r="L13" s="3">
         <v>0.35</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>45</v>
+      <c r="M13" s="3">
+        <v>0.35</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>0.9</v>
@@ -1914,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0.35</v>
@@ -1931,37 +1973,40 @@
       <c r="L14" s="3">
         <v>0.35</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>45</v>
+      <c r="M14" s="3">
+        <v>0.35</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>0.9</v>
@@ -1973,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1987,37 +2032,40 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>45</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -2026,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>0.5</v>
@@ -2043,37 +2091,40 @@
       <c r="L16" s="3">
         <v>0.5</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="R16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>0.9</v>
@@ -2085,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -2099,37 +2150,40 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>45</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>0.9</v>
@@ -2138,13 +2192,13 @@
         <v>0.67</v>
       </c>
       <c r="G18" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0.35</v>
@@ -2155,37 +2209,40 @@
       <c r="L18" s="3">
         <v>0.35</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>45</v>
+      <c r="M18" s="3">
+        <v>0.35</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -2194,13 +2251,13 @@
         <v>0.67</v>
       </c>
       <c r="G19" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="I19" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>0.35</v>
@@ -2211,37 +2268,40 @@
       <c r="L19" s="3">
         <v>0.35</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>45</v>
+      <c r="M19" s="3">
+        <v>0.35</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>0.9</v>
@@ -2250,13 +2310,13 @@
         <v>0.67</v>
       </c>
       <c r="G20" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0.35</v>
@@ -2267,23 +2327,26 @@
       <c r="L20" s="3">
         <v>0.35</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>45</v>
+      <c r="M20" s="3">
+        <v>0.35</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2303,539 +2366,539 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4"/>
-    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" style="4"/>
+    <col min="6" max="6" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="4"/>
+    <col min="8" max="8" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="H11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="H19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2851,600 +2914,600 @@
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.1328125" style="4"/>
+    <col min="7" max="7" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.45">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3460,50 +3523,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.73046875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="8">
         <v>28</v>
@@ -3527,9 +3590,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8">
         <v>28</v>
@@ -3553,9 +3616,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>24</v>
@@ -3579,9 +3642,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>24</v>
@@ -3605,9 +3668,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <v>24</v>
@@ -3631,9 +3694,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8">
         <v>24</v>
@@ -3657,9 +3720,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>24</v>
@@ -3684,9 +3747,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>24</v>
@@ -3710,9 +3773,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>24</v>
@@ -3736,9 +3799,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>24</v>
@@ -3762,9 +3825,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>24</v>
@@ -3788,9 +3851,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>24</v>
@@ -3814,9 +3877,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>50</v>
@@ -3840,9 +3903,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>24</v>
@@ -3866,9 +3929,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>50</v>
@@ -3892,9 +3955,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>-5</v>
@@ -3918,9 +3981,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>24</v>
@@ -3945,9 +4008,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="8">
         <v>24</v>
@@ -3971,9 +4034,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8">
         <v>24</v>
@@ -4011,65 +4074,65 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8">
         <v>35</v>
@@ -4108,9 +4171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8">
         <v>60</v>
@@ -4149,9 +4212,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>23</v>
@@ -4190,9 +4253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>10</v>
@@ -4231,9 +4294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -4272,9 +4335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -4313,9 +4376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>2.7</v>
@@ -4354,9 +4417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>13</v>
@@ -4395,9 +4458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>19</v>
@@ -4436,9 +4499,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -4477,9 +4540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
@@ -4518,9 +4581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>9</v>
@@ -4559,9 +4622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>20</v>
@@ -4600,9 +4663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -4641,9 +4704,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -4682,9 +4745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
@@ -4723,9 +4786,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>20</v>
@@ -4767,9 +4830,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
@@ -4808,9 +4871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8">
         <v>9</v>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1150,25 +1150,25 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" style="4" customWidth="1"/>
-    <col min="5" max="8" width="7.1328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.86328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.1328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
+    <col min="5" max="8" width="7.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.25</v>
+      <c r="G2" s="8">
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="U2" s="11"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1306,8 +1306,8 @@
       <c r="F3" s="3">
         <v>0.25</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.25</v>
+      <c r="G3" s="8">
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1365,8 +1365,8 @@
       <c r="F4" s="3">
         <v>0.84</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.84</v>
+      <c r="G4" s="8">
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1405,7 +1405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1424,8 +1424,8 @@
       <c r="F5" s="3">
         <v>0.84</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.84</v>
+      <c r="G5" s="8">
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1464,7 +1464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -1483,8 +1483,8 @@
       <c r="F6" s="3">
         <v>0.84</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.84</v>
+      <c r="G6" s="8">
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="F7" s="3">
         <v>0.84</v>
       </c>
-      <c r="G7" s="3">
-        <v>0.84</v>
+      <c r="G7" s="8">
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1582,7 +1582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1601,8 +1601,8 @@
       <c r="F8" s="3">
         <v>0.84</v>
       </c>
-      <c r="G8" s="3">
-        <v>0.84</v>
+      <c r="G8" s="8">
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -1660,8 +1660,8 @@
       <c r="F9" s="3">
         <v>0.7</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.7</v>
+      <c r="G9" s="8">
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1700,7 +1700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -1719,8 +1719,8 @@
       <c r="F10" s="3">
         <v>0.67</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.67</v>
+      <c r="G10" s="8">
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -1778,8 +1778,8 @@
       <c r="F11" s="3">
         <v>0.67</v>
       </c>
-      <c r="G11" s="3">
-        <v>0.67</v>
+      <c r="G11" s="8">
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1837,8 @@
       <c r="F12" s="3">
         <v>0.84</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.84</v>
+      <c r="G12" s="8">
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -1896,8 +1896,8 @@
       <c r="F13" s="3">
         <v>0.67</v>
       </c>
-      <c r="G13" s="3">
-        <v>0.67</v>
+      <c r="G13" s="8">
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="8">
         <v>0</v>
       </c>
       <c r="H14" s="3">
@@ -1995,7 +1995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -2014,8 +2014,8 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
+      <c r="G15" s="8">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
       <c r="H16" s="3">
@@ -2113,7 +2113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2132,8 +2132,8 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
+      <c r="G17" s="8">
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2191,8 +2191,8 @@
       <c r="F18" s="3">
         <v>0.67</v>
       </c>
-      <c r="G18" s="3">
-        <v>0.67</v>
+      <c r="G18" s="8">
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2231,7 +2231,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2250,8 +2250,8 @@
       <c r="F19" s="3">
         <v>0.67</v>
       </c>
-      <c r="G19" s="3">
-        <v>0.67</v>
+      <c r="G19" s="8">
+        <v>0</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2290,7 +2290,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -2309,8 +2309,8 @@
       <c r="F20" s="3">
         <v>0.67</v>
       </c>
-      <c r="G20" s="3">
-        <v>0.67</v>
+      <c r="G20" s="8">
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2366,19 +2366,19 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" style="4"/>
-    <col min="6" max="6" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" style="4"/>
-    <col min="8" max="8" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -2914,20 +2914,20 @@
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.73046875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1328125" style="4"/>
-    <col min="7" max="7" width="9.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="1048576" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="3"/>
     </row>
   </sheetData>
@@ -3527,18 +3527,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
@@ -4074,22 +4074,22 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,7 +2308,7 @@
     <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="4"/>
     <col min="6" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="4"/>
@@ -2358,13 +2358,13 @@
         <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2384,13 +2384,13 @@
         <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2410,13 +2410,13 @@
         <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2436,13 +2436,13 @@
         <v>48</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,13 +2514,13 @@
         <v>48</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2540,13 +2540,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,7 +2598,7 @@
         <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,13 +2618,13 @@
         <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2644,13 +2644,13 @@
         <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2670,13 +2670,13 @@
         <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>49</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>48</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>49</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,13 +2774,13 @@
         <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>49</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,7 +2832,7 @@
         <v>49</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -2840,6 +2840,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:C20" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3460,7 +3463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="83">
   <si>
     <t>Code</t>
   </si>
@@ -259,6 +259,27 @@
   </si>
   <si>
     <t>RH_max_pc</t>
+  </si>
+  <si>
+    <t>01|01</t>
+  </si>
+  <si>
+    <t>00|00</t>
+  </si>
+  <si>
+    <t>31|12</t>
+  </si>
+  <si>
+    <t>heat_starts</t>
+  </si>
+  <si>
+    <t>heat_ends</t>
+  </si>
+  <si>
+    <t>cool_starts</t>
+  </si>
+  <si>
+    <t>cool_ends</t>
   </si>
 </sst>
 </file>
@@ -785,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,6 +839,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2299,7 +2323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2848,10 +2872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,15 +2883,19 @@
     <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -2895,8 +2923,20 @@
       <c r="I1" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2924,8 +2964,20 @@
       <c r="I2" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2953,8 +3005,20 @@
       <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -2982,8 +3046,20 @@
       <c r="I4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -3011,8 +3087,20 @@
       <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
@@ -3040,8 +3128,20 @@
       <c r="I6" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -3069,8 +3169,20 @@
       <c r="I7" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -3098,8 +3210,20 @@
       <c r="I8" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -3127,8 +3251,20 @@
       <c r="I9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3292,20 @@
       <c r="I10" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -3185,8 +3333,20 @@
       <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
@@ -3214,8 +3374,20 @@
       <c r="I12" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
@@ -3243,8 +3415,20 @@
       <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
@@ -3272,8 +3456,20 @@
       <c r="I14" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>23</v>
       </c>
@@ -3301,8 +3497,20 @@
       <c r="I15" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -3330,8 +3538,20 @@
       <c r="I16" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
@@ -3359,8 +3579,20 @@
       <c r="I17" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -3388,8 +3620,20 @@
       <c r="I18" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>35</v>
       </c>
@@ -3417,8 +3661,20 @@
       <c r="I19" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -3445,6 +3701,18 @@
       </c>
       <c r="I20" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="84">
   <si>
     <t>Code</t>
   </si>
   <si>
-    <t>Hs</t>
-  </si>
-  <si>
     <t>type_hs</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>cool_ends</t>
+  </si>
+  <si>
+    <t>Hs_ag</t>
+  </si>
+  <si>
+    <t>Hs_bg</t>
   </si>
 </sst>
 </file>
@@ -1165,13 +1168,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,83 +1183,86 @@
     <col min="2" max="2" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="7.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>0.9</v>
@@ -1264,14 +1270,14 @@
       <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
       <c r="I2" s="3">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0.28999999999999998</v>
@@ -1282,38 +1288,41 @@
       <c r="L2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="11"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -1321,14 +1330,14 @@
       <c r="F3" s="3">
         <v>0.25</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
       <c r="I3" s="3">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0.28999999999999998</v>
@@ -1339,37 +1348,40 @@
       <c r="L3" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -1377,14 +1389,14 @@
       <c r="F4" s="3">
         <v>0.84</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
       <c r="I4" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0.35</v>
@@ -1395,37 +1407,40 @@
       <c r="L4" s="3">
         <v>0.35</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
+      <c r="M4" s="3">
+        <v>0.35</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3">
         <v>0.9</v>
@@ -1433,14 +1448,14 @@
       <c r="F5" s="3">
         <v>0.84</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
       <c r="I5" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0.59</v>
@@ -1451,37 +1466,40 @@
       <c r="L5" s="3">
         <v>0.59</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>45</v>
+      <c r="M5" s="3">
+        <v>0.59</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <v>0.9</v>
@@ -1489,14 +1507,14 @@
       <c r="F6" s="3">
         <v>0.84</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
       <c r="I6" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0.59</v>
@@ -1507,37 +1525,40 @@
       <c r="L6" s="3">
         <v>0.59</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>45</v>
+      <c r="M6" s="3">
+        <v>0.59</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
         <v>0.9</v>
@@ -1545,12 +1566,12 @@
       <c r="F7" s="3">
         <v>0.84</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
@@ -1563,37 +1584,40 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>45</v>
+      <c r="M7" s="3">
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3">
         <v>0.9</v>
@@ -1601,14 +1625,14 @@
       <c r="F8" s="3">
         <v>0.84</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>0.59</v>
@@ -1619,37 +1643,40 @@
       <c r="L8" s="3">
         <v>0.59</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>45</v>
+      <c r="M8" s="3">
+        <v>0.59</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
         <v>0.9</v>
@@ -1657,14 +1684,14 @@
       <c r="F9" s="3">
         <v>0.7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0.1</v>
@@ -1675,37 +1702,40 @@
       <c r="L9" s="3">
         <v>0.1</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>45</v>
+      <c r="M9" s="3">
+        <v>0.1</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3">
         <v>0.9</v>
@@ -1713,14 +1743,14 @@
       <c r="F10" s="3">
         <v>0.67</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0.35</v>
@@ -1731,37 +1761,40 @@
       <c r="L10" s="3">
         <v>0.35</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>45</v>
+      <c r="M10" s="3">
+        <v>0.35</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3">
         <v>0.9</v>
@@ -1769,14 +1802,14 @@
       <c r="F11" s="3">
         <v>0.67</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
       <c r="I11" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0.35</v>
@@ -1787,37 +1820,40 @@
       <c r="L11" s="3">
         <v>0.35</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>45</v>
+      <c r="M11" s="3">
+        <v>0.35</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>0.9</v>
@@ -1825,14 +1861,14 @@
       <c r="F12" s="3">
         <v>0.84</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0.35</v>
@@ -1843,37 +1879,40 @@
       <c r="L12" s="3">
         <v>0.35</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>45</v>
+      <c r="M12" s="3">
+        <v>0.35</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3">
         <v>0.9</v>
@@ -1881,14 +1920,14 @@
       <c r="F13" s="3">
         <v>0.67</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
       <c r="I13" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0.35</v>
@@ -1899,37 +1938,40 @@
       <c r="L13" s="3">
         <v>0.35</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>45</v>
+      <c r="M13" s="3">
+        <v>0.35</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
         <v>0.9</v>
@@ -1937,14 +1979,14 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0.35</v>
@@ -1955,37 +1997,40 @@
       <c r="L14" s="3">
         <v>0.35</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>45</v>
+      <c r="M14" s="3">
+        <v>0.35</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
         <v>0.9</v>
@@ -1993,12 +2038,12 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -2011,37 +2056,40 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>45</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
         <v>0.9</v>
@@ -2049,14 +2097,14 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
+      <c r="G16" s="8">
+        <v>0</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
       </c>
       <c r="I16" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <v>0.5</v>
@@ -2067,37 +2115,40 @@
       <c r="L16" s="3">
         <v>0.5</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="R16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3">
         <v>0.9</v>
@@ -2105,12 +2156,12 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -2123,37 +2174,40 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>45</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
         <v>0.9</v>
@@ -2161,14 +2215,14 @@
       <c r="F18" s="3">
         <v>0.67</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0.35</v>
@@ -2179,37 +2233,40 @@
       <c r="L18" s="3">
         <v>0.35</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>45</v>
+      <c r="M18" s="3">
+        <v>0.35</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
         <v>0.9</v>
@@ -2217,14 +2274,14 @@
       <c r="F19" s="3">
         <v>0.67</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="I19" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>0.35</v>
@@ -2235,37 +2292,40 @@
       <c r="L19" s="3">
         <v>0.35</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>45</v>
+      <c r="M19" s="3">
+        <v>0.35</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
         <v>0.9</v>
@@ -2273,14 +2333,14 @@
       <c r="F20" s="3">
         <v>0.67</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0.35</v>
@@ -2291,23 +2351,26 @@
       <c r="L20" s="3">
         <v>0.35</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>45</v>
+      <c r="M20" s="3">
+        <v>0.35</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2341,522 +2404,522 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -2874,7 +2937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -2897,822 +2960,822 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -3751,30 +3814,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8">
         <v>28</v>
@@ -3800,7 +3863,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8">
         <v>28</v>
@@ -3826,7 +3889,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>24</v>
@@ -3852,7 +3915,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>24</v>
@@ -3878,7 +3941,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <v>24</v>
@@ -3904,7 +3967,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8">
         <v>24</v>
@@ -3930,7 +3993,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>24</v>
@@ -3957,7 +4020,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>24</v>
@@ -3983,7 +4046,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>24</v>
@@ -4009,7 +4072,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>24</v>
@@ -4035,7 +4098,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>24</v>
@@ -4061,7 +4124,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>24</v>
@@ -4087,7 +4150,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>50</v>
@@ -4113,7 +4176,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>24</v>
@@ -4139,7 +4202,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>50</v>
@@ -4165,7 +4228,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>-5</v>
@@ -4191,7 +4254,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>24</v>
@@ -4218,7 +4281,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="8">
         <v>24</v>
@@ -4244,7 +4307,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8">
         <v>24</v>
@@ -4302,45 +4365,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8">
         <v>35</v>
@@ -4381,7 +4444,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8">
         <v>60</v>
@@ -4422,7 +4485,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8">
         <v>23</v>
@@ -4463,7 +4526,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8">
         <v>10</v>
@@ -4504,7 +4567,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8">
         <v>6</v>
@@ -4545,7 +4608,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8">
         <v>0</v>
@@ -4586,7 +4649,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>2.7</v>
@@ -4627,7 +4690,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>13</v>
@@ -4668,7 +4731,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="8">
         <v>19</v>
@@ -4709,7 +4772,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8">
         <v>4</v>
@@ -4750,7 +4813,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="8">
         <v>19</v>
@@ -4791,7 +4854,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="8">
         <v>9</v>
@@ -4832,7 +4895,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="8">
         <v>20</v>
@@ -4873,7 +4936,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="8">
         <v>0</v>
@@ -4914,7 +4977,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="8">
         <v>0</v>
@@ -4955,7 +5018,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="8">
         <v>0</v>
@@ -4996,7 +5059,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>20</v>
@@ -5040,7 +5103,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="8">
         <v>10</v>
@@ -5081,7 +5144,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="8">
         <v>9</v>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="124">
   <si>
     <t>Code</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Assumed: same as SCHOOL</t>
+  </si>
+  <si>
+    <t>T5</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,6 +993,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2530,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,13 +2595,13 @@
         <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,13 +2621,13 @@
         <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,13 +2647,13 @@
         <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,13 +2673,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2696,10 +2702,10 @@
         <v>47</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,10 +2728,10 @@
         <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,13 +2751,13 @@
         <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2771,13 +2777,13 @@
         <v>47</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2800,10 +2806,10 @@
         <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2826,10 +2832,10 @@
         <v>47</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,13 +2855,13 @@
         <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2875,13 +2881,13 @@
         <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,13 +2907,13 @@
         <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2930,10 +2936,10 @@
         <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,8 +2964,8 @@
       <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>51</v>
+      <c r="H16" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2982,10 +2988,10 @@
         <v>47</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,13 +3011,13 @@
         <v>47</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3034,10 +3040,10 @@
         <v>47</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3060,10 +3066,10 @@
         <v>47</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
@@ -5337,7 +5343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
   <si>
     <t>Code</t>
   </si>
@@ -328,9 +328,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>1940</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Concrete, Masonry and Rainscreens </t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -1254,11 +1254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
         <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>38</v>
@@ -1340,10 +1340,10 @@
         <v>42</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>95</v>
@@ -1400,10 +1400,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>95</v>
@@ -1460,10 +1460,10 @@
         <v>47</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>95</v>
@@ -1527,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1048559"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\CityEnergyAnalyst\CityEnergyAnalyst\cea\databases\SG\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="38400" windowHeight="19610" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
     <sheet name="SUPPLY" sheetId="8" r:id="rId2"/>
     <sheet name="AIR_CONDITIONING" sheetId="1" r:id="rId3"/>
     <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId4"/>
+    <sheet name="INDOOR_COMFORT" sheetId="6" r:id="rId5"/>
+    <sheet name="INTERNAL_LOADS" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="103">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>type_hs</t>
   </si>
@@ -47,6 +52,75 @@
     <t>type_shade</t>
   </si>
   <si>
+    <t>Ths_set_C</t>
+  </si>
+  <si>
+    <t>Ea_Wm2</t>
+  </si>
+  <si>
+    <t>El_Wm2</t>
+  </si>
+  <si>
+    <t>Epro_Wm2</t>
+  </si>
+  <si>
+    <t>Tcs_set_C</t>
+  </si>
+  <si>
+    <t>MULTI_RES</t>
+  </si>
+  <si>
+    <t>SINGLE_RES</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>OFFICE</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>RESTAURANT</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>GYM</t>
+  </si>
+  <si>
+    <t>SWIMMING</t>
+  </si>
+  <si>
+    <t>SERVERROOM</t>
+  </si>
+  <si>
+    <t>PARKING</t>
+  </si>
+  <si>
+    <t>COOLROOM</t>
+  </si>
+  <si>
+    <t>FOODSTORE</t>
+  </si>
+  <si>
+    <t>Ed_Wm2</t>
+  </si>
+  <si>
+    <t>Tcs_setb_C</t>
+  </si>
+  <si>
+    <t>Ths_setb_C</t>
+  </si>
+  <si>
     <t>type_win</t>
   </si>
   <si>
@@ -59,6 +133,15 @@
     <t>type_vent</t>
   </si>
   <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>MUSEUM</t>
+  </si>
+  <si>
+    <t>LIBRARY</t>
+  </si>
+  <si>
     <t>type_cons</t>
   </si>
   <si>
@@ -119,19 +202,55 @@
     <t>wwr_west</t>
   </si>
   <si>
+    <t>Qhpro_Wm2</t>
+  </si>
+  <si>
     <t>T4</t>
   </si>
   <si>
+    <t>UNIVERSITY</t>
+  </si>
+  <si>
     <t>void_deck</t>
   </si>
   <si>
     <t>type_el</t>
   </si>
   <si>
+    <t>Qcre_Wm2</t>
+  </si>
+  <si>
     <t>Ns</t>
   </si>
   <si>
     <t>Es</t>
+  </si>
+  <si>
+    <t>Qcpro_Wm2</t>
+  </si>
+  <si>
+    <t>Occ_m2pax</t>
+  </si>
+  <si>
+    <t>Vw_lpdpax</t>
+  </si>
+  <si>
+    <t>Vww_lpdpax</t>
+  </si>
+  <si>
+    <t>X_ghpax</t>
+  </si>
+  <si>
+    <t>Qs_Wpax</t>
+  </si>
+  <si>
+    <t>Ve_lpspax</t>
+  </si>
+  <si>
+    <t>RH_min_pc</t>
+  </si>
+  <si>
+    <t>RH_max_pc</t>
   </si>
   <si>
     <t>01|01</t>
@@ -560,7 +679,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -690,6 +809,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -735,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,10 +879,20 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1112,99 +1254,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="44" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
-    <col min="5" max="8" width="7.1796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.81640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="44" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="12" customWidth="1"/>
+    <col min="5" max="8" width="7.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="10.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>56</v>
+      <c r="B2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="3">
         <v>0.9</v>
@@ -1212,7 +1354,7 @@
       <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="8">
         <v>0</v>
       </c>
       <c r="H2" s="3">
@@ -1234,37 +1376,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="3">
         <v>0.9</v>
@@ -1272,7 +1414,7 @@
       <c r="F3" s="3">
         <v>0.84</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="8">
         <v>0</v>
       </c>
       <c r="H3" s="3">
@@ -1294,37 +1436,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="U3" s="11"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>95</v>
       </c>
       <c r="E4" s="3">
         <v>0.9</v>
@@ -1332,7 +1474,7 @@
       <c r="F4" s="3">
         <v>0.84</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>0</v>
       </c>
       <c r="H4" s="3">
@@ -1354,22 +1496,22 @@
         <v>0.59</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1387,84 +1529,84 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
+      <c r="E1" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1048559" spans="5:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1048559" s="3"/>
     </row>
   </sheetData>
@@ -1478,188 +1620,188 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.1796875" style="4"/>
-    <col min="7" max="7" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="H1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1048560" spans="8:8" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1048560" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048560" s="3"/>
     </row>
   </sheetData>
@@ -1675,190 +1817,1589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.26953125" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="12"/>
+    <col min="1" max="1" width="13.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="20" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="16">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16">
+        <v>35</v>
+      </c>
+      <c r="D2" s="16">
+        <v>34</v>
+      </c>
+      <c r="E2" s="16">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16">
+        <v>123</v>
+      </c>
+      <c r="G2" s="16">
+        <v>110</v>
+      </c>
+      <c r="H2" s="16">
+        <v>113</v>
+      </c>
+      <c r="I2" s="16">
+        <v>113</v>
+      </c>
+      <c r="J2" s="16">
+        <v>32</v>
+      </c>
+      <c r="K2" s="16">
+        <v>135</v>
+      </c>
+      <c r="L2" s="17">
+        <v>16</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="16">
+        <v>57</v>
+      </c>
+      <c r="C3" s="16">
+        <v>71</v>
+      </c>
+      <c r="D3" s="16">
+        <v>34</v>
+      </c>
+      <c r="E3" s="16">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16">
+        <v>69</v>
+      </c>
+      <c r="G3" s="16">
+        <v>91</v>
+      </c>
+      <c r="H3" s="16">
+        <v>104</v>
+      </c>
+      <c r="I3" s="16">
+        <v>113</v>
+      </c>
+      <c r="J3" s="16">
+        <v>32</v>
+      </c>
+      <c r="K3" s="16">
+        <v>135</v>
+      </c>
+      <c r="L3" s="17">
+        <v>16</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="16">
+        <v>112</v>
+      </c>
+      <c r="C4" s="16">
+        <v>188</v>
+      </c>
+      <c r="D4" s="16">
+        <v>73</v>
+      </c>
+      <c r="E4" s="16">
+        <v>16</v>
+      </c>
+      <c r="F4" s="16">
+        <v>85</v>
+      </c>
+      <c r="G4" s="16">
+        <v>75</v>
+      </c>
+      <c r="H4" s="16">
+        <v>180</v>
+      </c>
+      <c r="I4" s="16">
+        <v>78</v>
+      </c>
+      <c r="J4" s="16">
+        <v>32</v>
+      </c>
+      <c r="K4" s="16">
+        <v>135</v>
+      </c>
+      <c r="L4" s="17">
+        <v>16</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
+      <c r="H4" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8" si="0">111*0.15+10*0.85</f>
+        <v>25.15</v>
+      </c>
+      <c r="G8" s="5">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="B10" s="8">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
+      <c r="H13" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
         <v>50</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-5</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>30</v>
+      </c>
+      <c r="H17" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <f>F9</f>
+        <v>31</v>
+      </c>
+      <c r="G18" s="5">
+        <v>30</v>
+      </c>
+      <c r="H18" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>37</v>
+      </c>
+      <c r="E19" s="5">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8">
+        <v>35</v>
+      </c>
+      <c r="C2" s="8">
+        <v>70</v>
+      </c>
+      <c r="D2" s="8">
+        <v>80</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8">
+        <v>80</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8">
+        <v>60</v>
+      </c>
+      <c r="C3" s="5">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5">
+        <v>80</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>40</v>
+      </c>
+      <c r="J3" s="8">
+        <v>80</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
+        <v>70</v>
+      </c>
+      <c r="D4" s="8">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>40</v>
+      </c>
+      <c r="J4" s="8">
+        <v>80</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>70</v>
+      </c>
+      <c r="D5" s="8">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13">
-        <v>36</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B6" s="8">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>80</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>73</v>
+      </c>
+      <c r="D8" s="8">
+        <v>85</v>
+      </c>
+      <c r="E8" s="8">
+        <v>31.7</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>8</v>
+      </c>
+      <c r="J8" s="8">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>90</v>
+      </c>
+      <c r="D9" s="8">
+        <v>170</v>
+      </c>
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8">
+        <v>14.7</v>
+      </c>
+      <c r="G9" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="8">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>80</v>
+      </c>
+      <c r="E10" s="8">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>20</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8">
+        <v>80</v>
+      </c>
+      <c r="E11" s="8">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8">
+        <v>19</v>
+      </c>
+      <c r="C12" s="8">
+        <v>70</v>
+      </c>
+      <c r="D12" s="8">
+        <v>80</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>80</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>110</v>
+      </c>
+      <c r="D13" s="8">
+        <v>255</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>40</v>
+      </c>
+      <c r="J13" s="8">
+        <v>80</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8">
+        <v>70</v>
+      </c>
+      <c r="D14" s="8">
+        <v>80</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>360</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>500</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C12</f>
+        <v>70</v>
+      </c>
+      <c r="D18" s="8">
+        <f>D12</f>
+        <v>80</v>
+      </c>
+      <c r="E18" s="8">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <f>G9</f>
+        <v>16.5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
+        <v>20</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8">
+        <v>80</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="13">
-        <v>34</v>
-      </c>
-      <c r="E2" s="13">
-        <v>21</v>
-      </c>
-      <c r="F2" s="13">
-        <v>123</v>
-      </c>
-      <c r="G2" s="13">
-        <v>110</v>
-      </c>
-      <c r="H2" s="13">
-        <v>113</v>
-      </c>
-      <c r="I2" s="13">
-        <v>113</v>
-      </c>
-      <c r="J2" s="13">
-        <v>32</v>
-      </c>
-      <c r="K2" s="13">
-        <v>135</v>
-      </c>
-      <c r="L2" s="14">
-        <v>16</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13">
-        <v>57</v>
-      </c>
-      <c r="C3" s="13">
-        <v>71</v>
-      </c>
-      <c r="D3" s="13">
-        <v>34</v>
-      </c>
-      <c r="E3" s="13">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13">
-        <v>69</v>
-      </c>
-      <c r="G3" s="13">
-        <v>91</v>
-      </c>
-      <c r="H3" s="13">
-        <v>104</v>
-      </c>
-      <c r="I3" s="13">
-        <v>113</v>
-      </c>
-      <c r="J3" s="13">
-        <v>32</v>
-      </c>
-      <c r="K3" s="13">
-        <v>135</v>
-      </c>
-      <c r="L3" s="14">
-        <v>16</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13">
-        <v>112</v>
-      </c>
-      <c r="C4" s="13">
-        <v>188</v>
-      </c>
-      <c r="D4" s="13">
-        <v>73</v>
-      </c>
-      <c r="E4" s="13">
-        <v>16</v>
-      </c>
-      <c r="F4" s="13">
-        <v>85</v>
-      </c>
-      <c r="G4" s="13">
-        <v>75</v>
-      </c>
-      <c r="H4" s="13">
-        <v>180</v>
-      </c>
-      <c r="I4" s="13">
-        <v>78</v>
-      </c>
-      <c r="J4" s="13">
-        <v>32</v>
-      </c>
-      <c r="K4" s="13">
-        <v>135</v>
-      </c>
-      <c r="L4" s="14">
-        <v>16</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>55</v>
+      <c r="B20" s="8">
+        <v>9</v>
+      </c>
+      <c r="C20" s="8">
+        <v>70</v>
+      </c>
+      <c r="D20" s="8">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
   </bookViews>
   <sheets>
-    <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
-    <sheet name="SUPPLY" sheetId="8" r:id="rId2"/>
-    <sheet name="AIR_CONDITIONING" sheetId="1" r:id="rId3"/>
+    <sheet name="ENVELOPE_COMPONENTS" sheetId="3" r:id="rId1"/>
+    <sheet name="HVAC_COMPONENTS" sheetId="1" r:id="rId2"/>
+    <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId3"/>
     <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>type_hs</t>
   </si>
@@ -65,48 +65,18 @@
     <t>type_leak</t>
   </si>
   <si>
-    <t>year_start</t>
-  </si>
-  <si>
-    <t>year_end</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>T7</t>
-  </si>
-  <si>
-    <t>T6</t>
-  </si>
-  <si>
     <t>T0</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>T8</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>wwr_north</t>
   </si>
   <si>
@@ -200,18 +170,6 @@
     <t>SIA2040: Residential (current values: Top-Down Method)</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>1940</t>
-  </si>
-  <si>
     <t>Concrete and Masonry with outdoor  corridors</t>
   </si>
   <si>
@@ -222,6 +180,45 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>STD1</t>
+  </si>
+  <si>
+    <t>STD2</t>
+  </si>
+  <si>
+    <t>STD3</t>
+  </si>
+  <si>
+    <t>CONS2</t>
+  </si>
+  <si>
+    <t>LEAK3</t>
+  </si>
+  <si>
+    <t>WIN8</t>
+  </si>
+  <si>
+    <t>WIN10</t>
+  </si>
+  <si>
+    <t>ROOF7</t>
+  </si>
+  <si>
+    <t>WALL8</t>
+  </si>
+  <si>
+    <t>WALL7</t>
+  </si>
+  <si>
+    <t>SHADE0</t>
+  </si>
+  <si>
+    <t>LEAK2</t>
   </si>
 </sst>
 </file>
@@ -735,12 +732,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -757,9 +751,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,6 +778,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1110,564 +1104,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="44" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="9" customWidth="1"/>
-    <col min="5" max="8" width="7.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="7.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.85546875" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="G2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S2" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="H4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="2">
         <v>0.9</v>
       </c>
-      <c r="F2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="J4" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="N4" s="2">
         <v>0.59</v>
       </c>
-      <c r="K4" s="3">
+      <c r="O4" s="2">
         <v>0.59</v>
       </c>
-      <c r="L4" s="3">
+      <c r="P4" s="2">
         <v>0.59</v>
       </c>
-      <c r="M4" s="3">
+      <c r="Q4" s="2">
         <v>0.59</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C2:D2 C4:D4 C3:D3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1048559"/>
+  <dimension ref="A1:J1048560"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>18</v>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>18</v>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>18</v>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048559" s="3"/>
+    <row r="1048560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048560" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1048560"/>
+  <dimension ref="A1:E1048559"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>40</v>
+      <c r="E4" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="1048560" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1048560" s="3"/>
+    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048559" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2:C4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1675,190 +1602,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="11">
         <v>36</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <v>35</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>34</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>21</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>123</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>110</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>113</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="11">
         <v>113</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>32</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="11">
         <v>135</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="12">
         <v>16</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>55</v>
+      <c r="M2" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11">
+        <v>57</v>
+      </c>
+      <c r="C3" s="11">
+        <v>71</v>
+      </c>
+      <c r="D3" s="11">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11">
+        <v>69</v>
+      </c>
+      <c r="G3" s="11">
+        <v>91</v>
+      </c>
+      <c r="H3" s="11">
+        <v>104</v>
+      </c>
+      <c r="I3" s="11">
+        <v>113</v>
+      </c>
+      <c r="J3" s="11">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11">
+        <v>135</v>
+      </c>
+      <c r="L3" s="12">
         <v>16</v>
       </c>
-      <c r="B3" s="13">
-        <v>57</v>
-      </c>
-      <c r="C3" s="13">
-        <v>71</v>
-      </c>
-      <c r="D3" s="13">
-        <v>34</v>
-      </c>
-      <c r="E3" s="13">
-        <v>21</v>
-      </c>
-      <c r="F3" s="13">
-        <v>69</v>
-      </c>
-      <c r="G3" s="13">
-        <v>91</v>
-      </c>
-      <c r="H3" s="13">
-        <v>104</v>
-      </c>
-      <c r="I3" s="13">
-        <v>113</v>
-      </c>
-      <c r="J3" s="13">
-        <v>32</v>
-      </c>
-      <c r="K3" s="13">
-        <v>135</v>
-      </c>
-      <c r="L3" s="14">
-        <v>16</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>55</v>
+      <c r="M3" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="13">
+      <c r="A4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11">
         <v>112</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>188</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>73</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>16</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>85</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>75</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>180</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="11">
         <v>78</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>32</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="11">
         <v>135</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>16</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>55</v>
+      <c r="M4" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ENVELOPE_COMPONENTS" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>type_hs</t>
   </si>
@@ -185,15 +185,6 @@
     <t>STANDARD</t>
   </si>
   <si>
-    <t>STD1</t>
-  </si>
-  <si>
-    <t>STD2</t>
-  </si>
-  <si>
-    <t>STD3</t>
-  </si>
-  <si>
     <t>CONS2</t>
   </si>
   <si>
@@ -219,6 +210,30 @@
   </si>
   <si>
     <t>LEAK2</t>
+  </si>
+  <si>
+    <t>HEATING_AS0</t>
+  </si>
+  <si>
+    <t>ELECTRICITY_AS1</t>
+  </si>
+  <si>
+    <t>COOLING_AS1</t>
+  </si>
+  <si>
+    <t>COOLING_AS2</t>
+  </si>
+  <si>
+    <t>HOTWATER_AS1</t>
+  </si>
+  <si>
+    <t>STANDARD1</t>
+  </si>
+  <si>
+    <t>STANDARD2</t>
+  </si>
+  <si>
+    <t>STANDARD3</t>
   </si>
 </sst>
 </file>
@@ -1106,16 +1121,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1181,28 +1196,28 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="I2" s="2">
         <v>0.9</v>
@@ -1235,28 +1250,28 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="I3" s="2">
         <v>0.9</v>
@@ -1289,28 +1304,28 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>58</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="I4" s="2">
         <v>0.9</v>
@@ -1348,156 +1363,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1048560"/>
+  <dimension ref="A1:K1048560"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="1048560" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048560" s="2"/>
+    <row r="1048560" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1048560" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,91 +1535,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1048559"/>
+  <dimension ref="A1:F1048559"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>64</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E1048559" s="2"/>
+    <row r="1048559" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F1048559" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,191 +1641,204 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="15" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="11">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="11">
         <v>36</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="11">
         <v>35</v>
       </c>
-      <c r="D2" s="11">
+      <c r="E2" s="11">
         <v>34</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>21</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>123</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>110</v>
-      </c>
-      <c r="H2" s="11">
-        <v>113</v>
       </c>
       <c r="I2" s="11">
         <v>113</v>
       </c>
       <c r="J2" s="11">
+        <v>113</v>
+      </c>
+      <c r="K2" s="11">
         <v>32</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>135</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>16</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="11">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="11">
         <v>57</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="11">
         <v>71</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>34</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>21</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>69</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>91</v>
       </c>
-      <c r="H3" s="11">
+      <c r="I3" s="11">
         <v>104</v>
       </c>
-      <c r="I3" s="11">
+      <c r="J3" s="11">
         <v>113</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>32</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>135</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>16</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="11">
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11">
         <v>112</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>188</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>73</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>85</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>75</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I4" s="11">
         <v>180</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <v>78</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>32</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>135</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <v>16</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>45</v>
       </c>
     </row>

--- a/cea/databases/SG/archetypes/construction_properties.xlsx
+++ b/cea/databases/SG/archetypes/construction_properties.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19605" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="ENVELOPE_COMPONENTS" sheetId="3" r:id="rId1"/>
-    <sheet name="HVAC_COMPONENTS" sheetId="1" r:id="rId2"/>
-    <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId3"/>
-    <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId4"/>
+    <sheet name="STANDARD_DEFINITION" sheetId="10" r:id="rId1"/>
+    <sheet name="ENVELOPE_COMPONENTS" sheetId="3" r:id="rId2"/>
+    <sheet name="HVAC_COMPONENTS" sheetId="1" r:id="rId3"/>
+    <sheet name="SUPPLY_ASSEMBLIES" sheetId="8" r:id="rId4"/>
+    <sheet name="EMISSION_INTENSITY" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>type_hs</t>
   </si>
@@ -234,6 +235,12 @@
   </si>
   <si>
     <t>STANDARD3</t>
+  </si>
+  <si>
+    <t>YEAR_START</t>
+  </si>
+  <si>
+    <t>YEAR_END</t>
   </si>
 </sst>
 </file>
@@ -747,7 +754,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +804,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1119,120 +1132,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1900</v>
+      </c>
+      <c r="D3" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1900</v>
+      </c>
+      <c r="D4" s="21">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="7.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.85546875" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="7.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="10.85546875" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E2" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="F2" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="H2" s="2">
+        <v>0.9</v>
+      </c>
       <c r="I2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J2" s="2">
         <v>0.25</v>
       </c>
-      <c r="K2" s="5">
+      <c r="J2" s="5">
         <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N2" s="2">
         <v>0.28999999999999998</v>
@@ -1243,50 +1329,47 @@
       <c r="P2" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E3" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="F3" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="H3" s="2">
+        <v>0.9</v>
+      </c>
       <c r="I3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J3" s="2">
         <v>0.84</v>
       </c>
-      <c r="K3" s="5">
+      <c r="J3" s="5">
         <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N3" s="2">
         <v>0.28999999999999998</v>
@@ -1297,50 +1380,47 @@
       <c r="P3" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E4" s="19" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="19" t="s">
         <v>58</v>
       </c>
+      <c r="H4" s="2">
+        <v>0.9</v>
+      </c>
       <c r="I4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="2">
         <v>0.84</v>
       </c>
-      <c r="K4" s="5">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="N4" s="2">
         <v>0.59</v>
@@ -1351,181 +1431,6 @@
       <c r="P4" s="2">
         <v>0.59</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0.59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1048560"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="1048560" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1048560" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,310 +1440,443 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1048559"/>
+  <dimension ref="A1:J1048560"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1048560" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048560" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1048559"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
+      <c r="B2" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
+      <c r="B3" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>48</v>
+      <c r="B4" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="1048559" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F1048559" s="2"/>
+    <row r="1048559" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048559" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="15" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="10"/>
+    <col min="2" max="2" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>46</v>
+      <c r="B2" s="11">
+        <v>36</v>
       </c>
       <c r="C2" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="11">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F2" s="11">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="G2" s="11">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H2" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I2" s="11">
         <v>113</v>
       </c>
       <c r="J2" s="11">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="K2" s="11">
-        <v>32</v>
-      </c>
-      <c r="L2" s="11">
         <v>135</v>
       </c>
-      <c r="M2" s="12">
+      <c r="L2" s="12">
         <v>16</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>47</v>
+      <c r="B3" s="11">
+        <v>57</v>
       </c>
       <c r="C3" s="11">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D3" s="11">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E3" s="11">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F3" s="11">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H3" s="11">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="I3" s="11">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J3" s="11">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="K3" s="11">
-        <v>32</v>
-      </c>
-      <c r="L3" s="11">
         <v>135</v>
       </c>
-      <c r="M3" s="12">
+      <c r="L3" s="12">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>48</v>
+      <c r="B4" s="11">
+        <v>112</v>
       </c>
       <c r="C4" s="11">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="D4" s="11">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="E4" s="11">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="F4" s="11">
+        <v>85</v>
+      </c>
+      <c r="G4" s="11">
+        <v>75</v>
+      </c>
+      <c r="H4" s="11">
+        <v>180</v>
+      </c>
+      <c r="I4" s="11">
+        <v>78</v>
+      </c>
+      <c r="J4" s="11">
+        <v>32</v>
+      </c>
+      <c r="K4" s="11">
+        <v>135</v>
+      </c>
+      <c r="L4" s="12">
         <v>16</v>
       </c>
-      <c r="G4" s="11">
-        <v>85</v>
-      </c>
-      <c r="H4" s="11">
-        <v>75</v>
-      </c>
-      <c r="I4" s="11">
-        <v>180</v>
-      </c>
-      <c r="J4" s="11">
-        <v>78</v>
-      </c>
-      <c r="K4" s="11">
-        <v>32</v>
-      </c>
-      <c r="L4" s="11">
-        <v>135</v>
-      </c>
-      <c r="M4" s="12">
-        <v>16</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="13" t="s">
         <v>45</v>
       </c>
     </row>
